--- a/true_pairs.xlsx
+++ b/true_pairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="555">
   <si>
     <t>ID_SLB</t>
   </si>
@@ -337,9 +337,6 @@
     <t>XS2261215011</t>
   </si>
   <si>
-    <t>XS2463497201</t>
-  </si>
-  <si>
     <t>USN4717KBG06</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>BM6017461</t>
   </si>
   <si>
-    <t>BV6871503</t>
-  </si>
-  <si>
     <t>BV7512007</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>BBG00Y709383</t>
   </si>
   <si>
-    <t>BBG016J5TZT3</t>
-  </si>
-  <si>
     <t>BBG016LBJ8B7</t>
   </si>
   <si>
@@ -1081,9 +1072,6 @@
     <t>STEP-UP MARGIN: 75BP, STEP-UP EVENT: DEC 2030 CO2 EMISSIONS</t>
   </si>
   <si>
-    <t>STEP-UP MARGIN: 12.5BP PER SPT (12/31/2025) 2018 BASELINE; SPT1: CARBON INTENSITY REDUCTION 9.7%; SPT2: FRESHWATER WITHDRAWAL 25%</t>
-  </si>
-  <si>
     <t>STEP-UP MARGIN: UP TO 25 BPS; KPIs: (i,ii) 46.2% SCOPE 1,2 GHG EMISSIONS REDUCTION, (iii) GENDER EQUALITY</t>
   </si>
   <si>
@@ -1219,9 +1207,6 @@
     <t>Bookrunner Banco Bilbao Vizcaya Argentari BBVA JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner Banco Santander SANT JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner BNP Paribas BNPP JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner Credit Agricole CIB CACIB JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner HSBC HSBC JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner ING Groep ING JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner Societe Generale SG JLMB Joint Lead Managers-Books 0 1 2020-11-17 Bookrunner UniCredit UNICRD JLMB Joint Lead Managers-Books 0 1 2020-11-17 Trustee Homburger AG HOMBRE LAI Legal Adviser to the Issuer(s) 0 16 2020-11-17 Trustee Linklaters LLP L&amp;A LAI Legal Adviser to the Issuer(s) 0 16 2020-11-17 Trustee Clifford Chance LLP CHANCE LAM Legal Adviser(s) to the Manage 0 16 2020-11-17 ESG Assurance Provider ISS-oekom ISSOEK SNPC 2nd Party Consultant 0 30 2020-11-17</t>
   </si>
   <si>
-    <t>Bookrunner NatWest Markets NWM SOLE Sole Manager 150000 1 2022-03-23 Trustee Citibank NA/London CITI PAAG Paying Agent(s) 0 7 2022-03-23 Trustee Citibank NA/London CITI FISC Fiscal Agent(s) 0 7 2022-03-23 Trustee Citibank NA/London CITI TRNS Transfer Agent(s) 0 7 2022-03-23 Trustee Citibank Europe PLC CITIFS RGST Registrar(s) 0 7 2022-03-23 Trustee Homburger AG HOMBRE LAI Legal Adviser to the Issuer(s) 0 16 2022-03-23 Trustee Linklaters LLP L&amp;A LAI Legal Adviser to the Issuer(s) 0 16 2022-03-23 Trustee Linklaters LLP/Luxembourg LINKLS LAI Legal Adviser to the Issuer(s) 0 16 2022-03-23 Trustee Linklaters L&amp;A LAI Legal Adviser to the Issuer(s) 0 16 2022-03-23 Trustee Clifford Chance LLP CHANCE LAM Legal Adviser(s) to the Manage 0 16 2022-03-23</t>
-  </si>
-  <si>
     <t>Bookrunner Banco Santander (US) SANTAN JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner BMO Capital Markets Corp BMO JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner BNP Paribas/New York BNPPAR JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner BofA Securities BofA JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner Citigroup Global Markets Inc CITI JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner Credit Agricole Securities USA CASECS JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner HSBC Securities HSBC JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner JP Morgan JPM JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner MUFG Securities Americas Inc MUFG JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner Rabo Securities USA Inc RABO JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner Skandinaviska Enskilda Banken SEB JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner SMBC Nikko Securities America SMBC JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner TD Securities USA LLC TDSEC JLMB Joint Lead Managers-Books 0 1 2022-04-05 Bookrunner UniCredit Capital Markets Inc UNICRE JLMB Joint Lead Managers-Books 0 1 2022-04-05 ESG Assurance Provider Sustainalytics BV SUSANA SNPC 2nd Party Consultant 0 30 2022-04-05</t>
   </si>
   <si>
@@ -1297,6 +1282,9 @@
     <t>BM0609990</t>
   </si>
   <si>
+    <t>AP5382043</t>
+  </si>
+  <si>
     <t>AW8986910</t>
   </si>
   <si>
@@ -1312,21 +1300,18 @@
     <t>BK1042674</t>
   </si>
   <si>
-    <t>AN7155798</t>
+    <t>AN7160301</t>
   </si>
   <si>
     <t>ZP5396533</t>
   </si>
   <si>
-    <t>BK6879856</t>
+    <t>ZQ5987008</t>
   </si>
   <si>
     <t>BR2429784</t>
   </si>
   <si>
-    <t>BR8099524</t>
-  </si>
-  <si>
     <t>BP7786075</t>
   </si>
   <si>
@@ -1357,24 +1342,27 @@
     <t>AR1705011</t>
   </si>
   <si>
-    <t>BH4959517</t>
+    <t>BR6668031</t>
   </si>
   <si>
     <t>AZ2271320</t>
   </si>
   <si>
-    <t>AR7572142</t>
+    <t>BH2917509</t>
+  </si>
+  <si>
+    <t>BM8251845</t>
   </si>
   <si>
     <t>ZR4792597</t>
   </si>
   <si>
+    <t>AU5663219</t>
+  </si>
+  <si>
     <t>ZS7837538</t>
   </si>
   <si>
-    <t>AM7149413</t>
-  </si>
-  <si>
     <t>AR5374095</t>
   </si>
   <si>
@@ -1390,6 +1378,9 @@
     <t>XS2250376477</t>
   </si>
   <si>
+    <t>XS1701884204</t>
+  </si>
+  <si>
     <t>FR0013399029</t>
   </si>
   <si>
@@ -1405,21 +1396,18 @@
     <t>US21039CAA27</t>
   </si>
   <si>
-    <t>USN30707AE88</t>
+    <t>US29278GAA67</t>
   </si>
   <si>
     <t>XS2107315470</t>
   </si>
   <si>
-    <t>XS2209344543</t>
+    <t>XS2081474046</t>
   </si>
   <si>
     <t>XS2384273715</t>
   </si>
   <si>
-    <t>XS2397538252</t>
-  </si>
-  <si>
     <t>US46653KAB44</t>
   </si>
   <si>
@@ -1450,24 +1438,27 @@
     <t>XS1769041192</t>
   </si>
   <si>
-    <t>FR0013506532</t>
+    <t>FR0014005SC1</t>
   </si>
   <si>
     <t>XS2017330221</t>
   </si>
   <si>
-    <t>FR0013324373</t>
+    <t>FR0013505112</t>
+  </si>
+  <si>
+    <t>XS2268340010</t>
   </si>
   <si>
     <t>XS2051660509</t>
   </si>
   <si>
+    <t>US86964WAC64</t>
+  </si>
+  <si>
     <t>US86964WAG78</t>
   </si>
   <si>
-    <t>US86964WAB81</t>
-  </si>
-  <si>
     <t>XS1789459473</t>
   </si>
   <si>
@@ -1483,6 +1474,9 @@
     <t>BBG00XYG8H17</t>
   </si>
   <si>
+    <t>BBG00HY6NZH0</t>
+  </si>
+  <si>
     <t>BBG00N6FNMK3</t>
   </si>
   <si>
@@ -1498,21 +1492,18 @@
     <t>BBG00VJ0D3S9</t>
   </si>
   <si>
-    <t>BBG00GSK3ZX2</t>
+    <t>BBG00GSK9VB9</t>
   </si>
   <si>
     <t>BBG00RDQM245</t>
   </si>
   <si>
-    <t>BBG00WC50SW7</t>
+    <t>BBG00QV15TC3</t>
   </si>
   <si>
     <t>BBG012CD6GS0</t>
   </si>
   <si>
-    <t>BBG012V14ML1</t>
-  </si>
-  <si>
     <t>BBG0116YQ408</t>
   </si>
   <si>
@@ -1543,24 +1534,27 @@
     <t>BBG00K08BGC6</t>
   </si>
   <si>
-    <t>BBG00SYJ9XJ7</t>
+    <t>BBG012QR6C94</t>
   </si>
   <si>
     <t>BBG00PGS6XX0</t>
   </si>
   <si>
-    <t>BBG00K9ZVVS5</t>
+    <t>BBG00SSJBDD1</t>
+  </si>
+  <si>
+    <t>BBG00YCWTFN1</t>
   </si>
   <si>
     <t>BBG00Q68Z8S2</t>
   </si>
   <si>
+    <t>BBG00M0FZCR3</t>
+  </si>
+  <si>
     <t>BBG00P7SPFN9</t>
   </si>
   <si>
-    <t>BBG00G4V6BF4</t>
-  </si>
-  <si>
     <t>BBG00K6R0Q10</t>
   </si>
   <si>
@@ -1585,18 +1579,18 @@
     <t>General Corporate Purposes Stock Buyback</t>
   </si>
   <si>
-    <t>Acquisition Financing General Corporate Purposes</t>
-  </si>
-  <si>
     <t>EMTn</t>
   </si>
   <si>
-    <t>20FX</t>
+    <t>eMTN</t>
   </si>
   <si>
     <t>BM0609990 Corp</t>
   </si>
   <si>
+    <t>AP5382043 Corp</t>
+  </si>
+  <si>
     <t>AW8986910 Corp</t>
   </si>
   <si>
@@ -1612,21 +1606,18 @@
     <t>BK1042674 Corp</t>
   </si>
   <si>
-    <t>AN7155798 Corp</t>
+    <t>AN7160301 Corp</t>
   </si>
   <si>
     <t>ZP5396533 Corp</t>
   </si>
   <si>
-    <t>BK6879856 Corp</t>
+    <t>ZQ5987008 Corp</t>
   </si>
   <si>
     <t>BR2429784 Corp</t>
   </si>
   <si>
-    <t>BR8099524 Corp</t>
-  </si>
-  <si>
     <t>BP7786075 Corp</t>
   </si>
   <si>
@@ -1657,22 +1648,25 @@
     <t>AR1705011 Corp</t>
   </si>
   <si>
-    <t>BH4959517 Corp</t>
+    <t>BR6668031 Corp</t>
   </si>
   <si>
     <t>AZ2271320 Corp</t>
   </si>
   <si>
-    <t>AR7572142 Corp</t>
+    <t>BH2917509 Corp</t>
+  </si>
+  <si>
+    <t>BM8251845 Corp</t>
   </si>
   <si>
     <t>ZR4792597 Corp</t>
   </si>
   <si>
+    <t>AU5663219 Corp</t>
+  </si>
+  <si>
     <t>ZS7837538 Corp</t>
-  </si>
-  <si>
-    <t>AM7149413 Corp</t>
   </si>
   <si>
     <t>AR5374095 Corp</t>
@@ -2046,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM42"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2269,82 +2263,82 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N2">
         <v>0.625</v>
       </c>
       <c r="O2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S2" t="s">
+        <v>266</v>
+      </c>
+      <c r="T2" t="s">
         <v>269</v>
       </c>
-      <c r="T2" t="s">
-        <v>272</v>
-      </c>
       <c r="U2" t="s">
+        <v>280</v>
+      </c>
+      <c r="V2" t="s">
         <v>283</v>
       </c>
-      <c r="V2" t="s">
-        <v>286</v>
-      </c>
       <c r="W2" t="s">
+        <v>285</v>
+      </c>
+      <c r="X2" t="s">
         <v>288</v>
       </c>
-      <c r="X2" t="s">
-        <v>291</v>
-      </c>
       <c r="Y2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Z2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AA2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AB2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AD2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AE2">
         <v>25</v>
       </c>
       <c r="AH2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AK2">
         <v>0.553</v>
@@ -2374,55 +2368,55 @@
         <v>64</v>
       </c>
       <c r="AT2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AU2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AX2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AY2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AZ2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="BA2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB2" t="s">
         <v>283</v>
       </c>
-      <c r="BB2" t="s">
-        <v>286</v>
-      </c>
       <c r="BC2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BF2">
         <v>0.625</v>
       </c>
       <c r="BG2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BL2">
         <v>0.609</v>
@@ -2454,82 +2448,82 @@
         <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N3">
         <v>1.5</v>
       </c>
       <c r="O3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" t="s">
         <v>269</v>
       </c>
-      <c r="T3" t="s">
-        <v>272</v>
-      </c>
       <c r="U3" t="s">
+        <v>280</v>
+      </c>
+      <c r="V3" t="s">
         <v>283</v>
       </c>
-      <c r="V3" t="s">
-        <v>286</v>
-      </c>
       <c r="W3" t="s">
+        <v>285</v>
+      </c>
+      <c r="X3" t="s">
         <v>288</v>
       </c>
-      <c r="X3" t="s">
-        <v>291</v>
-      </c>
       <c r="Y3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Z3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AA3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AB3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AD3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AE3">
         <v>25</v>
       </c>
       <c r="AH3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AJ3">
         <v>1.622</v>
@@ -2544,76 +2538,76 @@
         <v>1</v>
       </c>
       <c r="AO3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="2">
-        <v>44132</v>
+        <v>43027</v>
       </c>
       <c r="AQ3" s="2">
-        <v>48515</v>
+        <v>46679</v>
       </c>
       <c r="AR3">
-        <v>587530000</v>
+        <v>355038000</v>
       </c>
       <c r="AS3" t="s">
         <v>64</v>
       </c>
       <c r="AT3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AU3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AX3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AY3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AZ3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BA3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB3" t="s">
         <v>283</v>
       </c>
-      <c r="BB3" t="s">
-        <v>286</v>
-      </c>
       <c r="BC3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BF3">
-        <v>0.625</v>
+        <v>1.625</v>
       </c>
       <c r="BG3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="BL3">
-        <v>0.609</v>
+        <v>1.68</v>
       </c>
       <c r="BM3">
-        <v>0.609</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2639,82 +2633,82 @@
         <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N4">
         <v>2.375</v>
       </c>
       <c r="O4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" t="s">
         <v>259</v>
       </c>
-      <c r="Q4" t="s">
-        <v>262</v>
-      </c>
       <c r="R4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Z4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB4" t="s">
         <v>323</v>
       </c>
-      <c r="AB4" t="s">
-        <v>326</v>
-      </c>
       <c r="AC4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AD4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AE4">
         <v>12.5</v>
       </c>
       <c r="AH4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AJ4">
         <v>2.5</v>
@@ -2744,55 +2738,55 @@
         <v>65</v>
       </c>
       <c r="AT4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AU4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AX4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AY4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AZ4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="BA4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF4">
         <v>3</v>
       </c>
       <c r="BG4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BH4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BI4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="BL4">
         <v>2.36</v>
@@ -2824,82 +2818,82 @@
         <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" t="s">
         <v>259</v>
       </c>
-      <c r="Q5" t="s">
-        <v>262</v>
-      </c>
       <c r="R5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U5" t="s">
+        <v>280</v>
+      </c>
+      <c r="V5" t="s">
         <v>283</v>
       </c>
-      <c r="V5" t="s">
-        <v>286</v>
-      </c>
       <c r="W5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Y5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Z5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AC5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH5" t="s">
         <v>379</v>
       </c>
-      <c r="AH5" t="s">
-        <v>383</v>
-      </c>
       <c r="AI5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AJ5">
         <v>1.109</v>
@@ -2929,55 +2923,55 @@
         <v>66</v>
       </c>
       <c r="AT5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AU5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AX5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AY5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AZ5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BA5" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB5" t="s">
         <v>283</v>
       </c>
-      <c r="BB5" t="s">
-        <v>286</v>
-      </c>
       <c r="BC5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF5">
         <v>2.5</v>
       </c>
       <c r="BG5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BH5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BI5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="BL5">
         <v>2.456</v>
@@ -3009,82 +3003,82 @@
         <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N6">
         <v>1.75</v>
       </c>
       <c r="O6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S6" t="s">
+        <v>266</v>
+      </c>
+      <c r="T6" t="s">
         <v>269</v>
       </c>
-      <c r="T6" t="s">
-        <v>272</v>
-      </c>
       <c r="U6" t="s">
+        <v>280</v>
+      </c>
+      <c r="V6" t="s">
         <v>283</v>
       </c>
-      <c r="V6" t="s">
-        <v>286</v>
-      </c>
       <c r="W6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Y6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Z6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA6" t="s">
         <v>321</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>324</v>
       </c>
-      <c r="AB6" t="s">
-        <v>327</v>
-      </c>
       <c r="AC6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AD6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AE6">
         <v>25</v>
       </c>
       <c r="AH6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AJ6">
         <v>2.017</v>
@@ -3114,55 +3108,55 @@
         <v>67</v>
       </c>
       <c r="AT6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AU6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AX6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AY6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AZ6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="BA6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB6" t="s">
         <v>283</v>
       </c>
-      <c r="BB6" t="s">
-        <v>286</v>
-      </c>
       <c r="BC6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BF6">
         <v>1.5</v>
       </c>
       <c r="BG6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="BL6">
         <v>1.572</v>
@@ -3194,82 +3188,82 @@
         <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <v>1.875</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Y7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Z7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AD7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AE7">
         <v>25</v>
       </c>
       <c r="AH7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AK7">
         <v>1.844</v>
@@ -3296,55 +3290,55 @@
         <v>68</v>
       </c>
       <c r="AT7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AU7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AX7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AY7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AZ7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BA7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF7">
         <v>2.625</v>
       </c>
       <c r="BG7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="BH7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BI7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BL7">
         <v>2.139</v>
@@ -3376,82 +3370,82 @@
         <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N8">
         <v>2.375</v>
       </c>
       <c r="O8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Y8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Z8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AD8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AE8">
         <v>25</v>
       </c>
       <c r="AH8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ8">
         <v>2.471</v>
@@ -3481,55 +3475,55 @@
         <v>68</v>
       </c>
       <c r="AT8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AU8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AX8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AY8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AZ8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BA8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF8">
         <v>2.625</v>
       </c>
       <c r="BG8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="BH8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BI8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BL8">
         <v>2.139</v>
@@ -3561,82 +3555,82 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N9">
         <v>3.75</v>
       </c>
       <c r="O9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U9" t="s">
+        <v>280</v>
+      </c>
+      <c r="V9" t="s">
         <v>283</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>286</v>
       </c>
-      <c r="W9" t="s">
-        <v>289</v>
-      </c>
       <c r="X9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Z9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AD9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AE9">
         <v>12.5</v>
       </c>
       <c r="AH9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AI9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AJ9">
         <v>3.75</v>
@@ -3669,58 +3663,58 @@
         <v>69</v>
       </c>
       <c r="AT9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AU9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV9">
         <v>5.625</v>
       </c>
       <c r="AW9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AX9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AY9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AZ9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BA9" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB9" t="s">
         <v>283</v>
       </c>
-      <c r="BB9" t="s">
-        <v>286</v>
-      </c>
       <c r="BC9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF9">
         <v>5.625</v>
       </c>
       <c r="BG9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BI9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BL9">
         <v>5.702</v>
@@ -3752,82 +3746,82 @@
         <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N10">
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U10" t="s">
+        <v>280</v>
+      </c>
+      <c r="V10" t="s">
         <v>283</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>286</v>
       </c>
-      <c r="W10" t="s">
-        <v>289</v>
-      </c>
       <c r="X10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Z10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AD10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AE10">
         <v>12.5</v>
       </c>
       <c r="AH10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AI10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AJ10">
         <v>3.75</v>
@@ -3860,58 +3854,58 @@
         <v>69</v>
       </c>
       <c r="AT10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AU10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV10">
         <v>5.625</v>
       </c>
       <c r="AW10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AX10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AY10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AZ10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BA10" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB10" t="s">
         <v>283</v>
       </c>
-      <c r="BB10" t="s">
-        <v>286</v>
-      </c>
       <c r="BC10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF10">
         <v>5.625</v>
       </c>
       <c r="BG10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BI10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BL10">
         <v>5.702</v>
@@ -3943,82 +3937,82 @@
         <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N11">
         <v>2.65</v>
       </c>
       <c r="O11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q11" t="s">
         <v>260</v>
       </c>
-      <c r="Q11" t="s">
-        <v>263</v>
-      </c>
       <c r="R11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U11" t="s">
+        <v>280</v>
+      </c>
+      <c r="V11" t="s">
         <v>283</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>286</v>
       </c>
-      <c r="W11" t="s">
-        <v>289</v>
-      </c>
       <c r="X11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AB11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AC11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AD11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AE11">
         <v>25</v>
       </c>
       <c r="AH11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AJ11">
         <v>2.676</v>
@@ -4033,79 +4027,79 @@
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP11" s="2">
         <v>42880</v>
       </c>
       <c r="AQ11" s="2">
-        <v>53837</v>
+        <v>46532</v>
       </c>
       <c r="AR11">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="AS11" t="s">
         <v>70</v>
       </c>
       <c r="AT11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV11">
-        <v>4.76</v>
+        <v>3.747</v>
       </c>
       <c r="AW11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>492</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>517</v>
+      </c>
+      <c r="BE11" t="s">
         <v>244</v>
       </c>
-      <c r="AX11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>463</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>494</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>519</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>247</v>
-      </c>
       <c r="BF11">
-        <v>4.75</v>
+        <v>3.625</v>
       </c>
       <c r="BG11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="BH11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BI11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BJ11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BL11">
-        <v>4.72</v>
+        <v>3.742</v>
       </c>
       <c r="BM11">
-        <v>4.72</v>
+        <v>3.742</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -4131,82 +4125,82 @@
         <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N12">
         <v>2.65</v>
       </c>
       <c r="O12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U12" t="s">
+        <v>280</v>
+      </c>
+      <c r="V12" t="s">
         <v>283</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>286</v>
       </c>
-      <c r="W12" t="s">
-        <v>289</v>
-      </c>
       <c r="X12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AB12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AC12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AD12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AE12">
         <v>25</v>
       </c>
       <c r="AH12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AJ12">
         <v>2.676</v>
@@ -4221,79 +4215,79 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP12" s="2">
         <v>42880</v>
       </c>
       <c r="AQ12" s="2">
-        <v>53837</v>
+        <v>46532</v>
       </c>
       <c r="AR12">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="AS12" t="s">
         <v>70</v>
       </c>
       <c r="AT12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AU12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV12">
-        <v>4.76</v>
+        <v>3.747</v>
       </c>
       <c r="AW12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>492</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>517</v>
+      </c>
+      <c r="BE12" t="s">
         <v>244</v>
       </c>
-      <c r="AX12" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>463</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>494</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>519</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>247</v>
-      </c>
       <c r="BF12">
-        <v>4.75</v>
+        <v>3.625</v>
       </c>
       <c r="BG12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="BH12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BI12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BJ12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BL12">
-        <v>4.72</v>
+        <v>3.742</v>
       </c>
       <c r="BM12">
-        <v>4.72</v>
+        <v>3.742</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4319,82 +4313,82 @@
         <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N13">
         <v>0.375</v>
       </c>
       <c r="O13" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q13" t="s">
         <v>258</v>
       </c>
-      <c r="P13" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>261</v>
-      </c>
       <c r="R13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AC13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AD13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AE13">
         <v>25</v>
       </c>
       <c r="AH13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AK13">
         <v>0.294</v>
@@ -4424,55 +4418,55 @@
         <v>71</v>
       </c>
       <c r="AT13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AU13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AX13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AY13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AZ13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BA13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BF13">
         <v>0.625</v>
       </c>
       <c r="BG13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BI13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BJ13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="BL13">
         <v>0.542</v>
@@ -4504,82 +4498,82 @@
         <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N14">
         <v>2.75</v>
       </c>
       <c r="O14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q14" t="s">
         <v>259</v>
       </c>
-      <c r="Q14" t="s">
-        <v>262</v>
-      </c>
       <c r="R14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="V14" t="s">
+        <v>283</v>
+      </c>
+      <c r="W14" t="s">
         <v>286</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>289</v>
       </c>
-      <c r="X14" t="s">
-        <v>292</v>
-      </c>
       <c r="Y14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Z14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB14" t="s">
         <v>323</v>
       </c>
-      <c r="AB14" t="s">
-        <v>326</v>
-      </c>
       <c r="AC14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AD14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE14">
         <v>25</v>
       </c>
       <c r="AH14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AJ14">
         <v>2.75</v>
@@ -4594,79 +4588,76 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP14" s="2">
-        <v>44043</v>
+        <v>43796</v>
       </c>
       <c r="AQ14" s="2">
-        <v>46919</v>
+        <v>46553</v>
       </c>
       <c r="AR14">
-        <v>825398000</v>
+        <v>979017800</v>
       </c>
       <c r="AS14" t="s">
         <v>72</v>
       </c>
       <c r="AT14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AU14" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV14">
-        <v>3.75</v>
+        <v>286</v>
       </c>
       <c r="AW14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AX14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AY14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AZ14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BA14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BB14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD14" t="s">
         <v>519</v>
       </c>
       <c r="BE14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BF14">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="BG14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BH14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BI14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="BL14">
-        <v>3.691</v>
+        <v>2.168</v>
       </c>
       <c r="BM14">
-        <v>3.691</v>
+        <v>2.168</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4692,82 +4683,82 @@
         <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N15">
         <v>0.5</v>
       </c>
       <c r="O15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P15" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q15" t="s">
         <v>259</v>
       </c>
-      <c r="Q15" t="s">
-        <v>262</v>
-      </c>
       <c r="R15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S15" t="s">
+        <v>266</v>
+      </c>
+      <c r="T15" t="s">
         <v>269</v>
       </c>
-      <c r="T15" t="s">
-        <v>272</v>
-      </c>
       <c r="U15" t="s">
+        <v>280</v>
+      </c>
+      <c r="V15" t="s">
         <v>283</v>
       </c>
-      <c r="V15" t="s">
-        <v>286</v>
-      </c>
       <c r="W15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Z15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AC15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AD15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AE15">
         <v>75</v>
       </c>
       <c r="AH15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AK15">
         <v>0.477</v>
@@ -4797,58 +4788,58 @@
         <v>73</v>
       </c>
       <c r="AT15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AU15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AV15">
         <v>0.604</v>
       </c>
       <c r="AW15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AX15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AY15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AZ15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="BA15" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB15" t="s">
         <v>283</v>
       </c>
-      <c r="BB15" t="s">
-        <v>286</v>
-      </c>
       <c r="BC15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BF15">
         <v>0.5</v>
       </c>
       <c r="BG15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="BL15">
         <v>0.601</v>
@@ -4862,181 +4853,184 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2">
-        <v>44652</v>
+        <v>44659</v>
       </c>
       <c r="D16" s="2">
-        <v>46149</v>
+        <v>55617</v>
       </c>
       <c r="E16">
-        <v>165604500</v>
+        <v>500000000</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M16" t="s">
+        <v>247</v>
+      </c>
+      <c r="N16">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="s">
         <v>254</v>
       </c>
-      <c r="N16">
-        <v>1.625</v>
-      </c>
-      <c r="O16" t="s">
-        <v>258</v>
-      </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q16" t="s">
         <v>261</v>
       </c>
       <c r="R16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S16" t="s">
+        <v>267</v>
+      </c>
+      <c r="T16" t="s">
         <v>269</v>
       </c>
-      <c r="T16" t="s">
-        <v>274</v>
-      </c>
       <c r="U16" t="s">
+        <v>280</v>
+      </c>
+      <c r="V16" t="s">
         <v>283</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>286</v>
       </c>
-      <c r="W16" t="s">
-        <v>288</v>
-      </c>
       <c r="X16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Y16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Z16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AC16" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="AD16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE16" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE16">
+        <v>25</v>
+      </c>
+      <c r="AH16" t="s">
         <v>380</v>
       </c>
-      <c r="AH16" t="s">
-        <v>382</v>
-      </c>
       <c r="AI16" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="AJ16">
+        <v>4.608</v>
       </c>
       <c r="AK16">
-        <v>1.417</v>
+        <v>4.919</v>
       </c>
       <c r="AM16">
-        <v>1.417</v>
+        <v>4.919</v>
       </c>
       <c r="AN16" t="b">
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="AP16" s="2">
-        <v>44477</v>
+        <v>44344</v>
       </c>
       <c r="AQ16" s="2">
-        <v>49956</v>
+        <v>55301</v>
       </c>
       <c r="AR16">
-        <v>347044643</v>
+        <v>500000000</v>
       </c>
       <c r="AS16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU16" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="AV16">
+        <v>3.781</v>
       </c>
       <c r="AW16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>432</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>496</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>517</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>244</v>
+      </c>
+      <c r="BF16">
+        <v>3.75</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI16" t="s">
         <v>254</v>
       </c>
-      <c r="AX16" t="s">
-        <v>436</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>467</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>498</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>520</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF16">
-        <v>1.375</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>261</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>272</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>258</v>
-      </c>
       <c r="BJ16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BK16" t="s">
-        <v>536</v>
-      </c>
-      <c r="BL16">
-        <v>1.186</v>
+        <v>534</v>
       </c>
       <c r="BM16">
-        <v>1.186</v>
+        <v>3.781</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -5044,7 +5038,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2">
         <v>44659</v>
@@ -5062,91 +5056,88 @@
         <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K17" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" t="s">
         <v>247</v>
-      </c>
-      <c r="L17" t="s">
-        <v>247</v>
-      </c>
-      <c r="M17" t="s">
-        <v>250</v>
       </c>
       <c r="N17">
         <v>4.5</v>
       </c>
       <c r="O17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U17" t="s">
+        <v>280</v>
+      </c>
+      <c r="V17" t="s">
         <v>283</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>286</v>
       </c>
-      <c r="W17" t="s">
-        <v>289</v>
-      </c>
       <c r="X17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Y17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Z17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AD17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AE17">
         <v>25</v>
       </c>
       <c r="AH17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AI17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AJ17">
         <v>4.608</v>
       </c>
-      <c r="AK17">
-        <v>4.919</v>
-      </c>
       <c r="AM17">
-        <v>4.919</v>
+        <v>4.608</v>
       </c>
       <c r="AN17" t="b">
         <v>1</v>
@@ -5167,58 +5158,58 @@
         <v>74</v>
       </c>
       <c r="AT17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AU17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV17">
         <v>3.781</v>
       </c>
       <c r="AW17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AX17" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AY17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AZ17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="BA17" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB17" t="s">
         <v>283</v>
       </c>
-      <c r="BB17" t="s">
-        <v>286</v>
-      </c>
       <c r="BC17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BF17">
         <v>3.75</v>
       </c>
       <c r="BG17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK17" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="BM17">
         <v>3.781</v>
@@ -5229,181 +5220,184 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2">
-        <v>44659</v>
+        <v>44531</v>
       </c>
       <c r="D18" s="2">
-        <v>55617</v>
+        <v>48183</v>
       </c>
       <c r="E18">
-        <v>500000000</v>
+        <v>849270000</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N18">
-        <v>4.5</v>
+        <v>0.875</v>
       </c>
       <c r="O18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P18" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q18" t="s">
         <v>259</v>
       </c>
-      <c r="Q18" t="s">
-        <v>263</v>
-      </c>
       <c r="R18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U18" t="s">
+        <v>280</v>
+      </c>
+      <c r="V18" t="s">
         <v>283</v>
       </c>
-      <c r="V18" t="s">
-        <v>286</v>
-      </c>
       <c r="W18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="X18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC18" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AD18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AE18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AI18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ18">
-        <v>4.608</v>
+        <v>0.931</v>
+      </c>
+      <c r="AK18">
+        <v>0.8179999999999999</v>
       </c>
       <c r="AM18">
-        <v>4.608</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="AN18" t="b">
         <v>1</v>
       </c>
       <c r="AO18">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AP18" s="2">
-        <v>44344</v>
+        <v>43728</v>
       </c>
       <c r="AQ18" s="2">
-        <v>55301</v>
+        <v>47381</v>
       </c>
       <c r="AR18">
-        <v>500000000</v>
+        <v>825547500</v>
       </c>
       <c r="AS18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AT18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AU18" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV18">
-        <v>3.781</v>
+        <v>285</v>
       </c>
       <c r="AW18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AX18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AY18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AZ18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="BA18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB18" t="s">
         <v>283</v>
       </c>
-      <c r="BB18" t="s">
-        <v>286</v>
-      </c>
       <c r="BC18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD18" t="s">
-        <v>519</v>
+        <v>259</v>
       </c>
       <c r="BE18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BF18">
-        <v>3.75</v>
+        <v>0.625</v>
       </c>
       <c r="BG18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BH18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BK18" t="s">
-        <v>537</v>
+        <v>535</v>
+      </c>
+      <c r="BL18">
+        <v>0.6879999999999999</v>
       </c>
       <c r="BM18">
-        <v>3.781</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5411,184 +5405,175 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2">
-        <v>44531</v>
+        <v>44523</v>
       </c>
       <c r="D19" s="2">
-        <v>48183</v>
+        <v>46349</v>
       </c>
       <c r="E19">
-        <v>849270000</v>
+        <v>165837000</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N19">
-        <v>0.875</v>
+        <v>0.627</v>
       </c>
       <c r="O19" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" t="s">
         <v>257</v>
-      </c>
-      <c r="P19" t="s">
-        <v>259</v>
       </c>
       <c r="Q19" t="s">
         <v>262</v>
       </c>
       <c r="R19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S19" t="s">
         <v>268</v>
       </c>
-      <c r="S19" t="s">
-        <v>269</v>
-      </c>
-      <c r="T19" t="s">
-        <v>272</v>
-      </c>
       <c r="U19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="V19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="W19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Y19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Z19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA19" t="s">
         <v>321</v>
       </c>
-      <c r="AA19" t="s">
-        <v>323</v>
-      </c>
       <c r="AB19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AC19" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AD19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AE19">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="AH19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AI19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AJ19">
-        <v>0.931</v>
+        <v>399</v>
       </c>
       <c r="AK19">
-        <v>0.8179999999999999</v>
+        <v>0.536</v>
       </c>
       <c r="AM19">
-        <v>0.8179999999999999</v>
+        <v>0.536</v>
       </c>
       <c r="AN19" t="b">
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP19" s="2">
-        <v>43728</v>
+        <v>43880</v>
       </c>
       <c r="AQ19" s="2">
-        <v>47381</v>
+        <v>45707</v>
       </c>
       <c r="AR19">
-        <v>825547500</v>
+        <v>127452500</v>
       </c>
       <c r="AS19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AU19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AX19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AY19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AZ19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="BA19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="BB19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BC19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD19" t="s">
-        <v>262</v>
+        <v>517</v>
       </c>
       <c r="BE19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BF19">
-        <v>0.625</v>
+        <v>0.756</v>
       </c>
       <c r="BG19" t="s">
         <v>262</v>
       </c>
-      <c r="BH19" t="s">
-        <v>272</v>
-      </c>
       <c r="BI19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BJ19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BK19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BL19">
-        <v>0.6879999999999999</v>
+        <v>0.887</v>
       </c>
       <c r="BM19">
-        <v>0.6879999999999999</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5596,175 +5581,190 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2">
-        <v>44523</v>
+        <v>44208</v>
       </c>
       <c r="D20" s="2">
-        <v>46349</v>
+        <v>47860</v>
       </c>
       <c r="E20">
-        <v>165837000</v>
+        <v>500000000</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N20">
-        <v>0.627</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P20" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q20" t="s">
         <v>260</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>265</v>
       </c>
-      <c r="R20" t="s">
-        <v>268</v>
-      </c>
       <c r="S20" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="T20" t="s">
+        <v>270</v>
       </c>
       <c r="U20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="W20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="X20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AB20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC20" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AD20" t="s">
-        <v>358</v>
-      </c>
-      <c r="AE20">
-        <v>7.5</v>
+        <v>355</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>376</v>
       </c>
       <c r="AH20" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AI20" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="AJ20">
+        <v>3.2</v>
       </c>
       <c r="AK20">
-        <v>0.536</v>
+        <v>3.151</v>
+      </c>
+      <c r="AL20">
+        <v>1.027</v>
       </c>
       <c r="AM20">
-        <v>0.536</v>
+        <v>3.151</v>
       </c>
       <c r="AN20" t="b">
         <v>1</v>
       </c>
       <c r="AO20">
+        <v>267</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>43558</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>47211</v>
+      </c>
+      <c r="AR20">
+        <v>750000000</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV20">
+        <v>5.8</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>467</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC20" t="s">
         <v>265</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>43880</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>45707</v>
-      </c>
-      <c r="AR20">
-        <v>127452500</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>439</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>501</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>279</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>287</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>268</v>
       </c>
       <c r="BD20" t="s">
         <v>519</v>
       </c>
       <c r="BE20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BF20">
-        <v>0.756</v>
+        <v>5.75</v>
       </c>
       <c r="BG20" t="s">
-        <v>265</v>
+        <v>260</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>270</v>
       </c>
       <c r="BI20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BJ20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="BK20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BL20">
-        <v>0.887</v>
+        <v>5.704</v>
       </c>
       <c r="BM20">
-        <v>0.887</v>
+        <v>5.704</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5772,7 +5772,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2">
         <v>44208</v>
@@ -5790,94 +5790,94 @@
         <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N21">
         <v>3.2</v>
       </c>
       <c r="O21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S21" t="s">
+        <v>267</v>
+      </c>
+      <c r="T21" t="s">
         <v>270</v>
       </c>
-      <c r="T21" t="s">
-        <v>273</v>
-      </c>
       <c r="U21" t="s">
+        <v>280</v>
+      </c>
+      <c r="V21" t="s">
         <v>283</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>286</v>
       </c>
-      <c r="W21" t="s">
-        <v>289</v>
-      </c>
       <c r="X21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Z21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AD21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AE21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AH21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI21" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AJ21">
         <v>3.2</v>
       </c>
       <c r="AK21">
-        <v>3.151</v>
+        <v>3.155</v>
       </c>
       <c r="AL21">
-        <v>1.027</v>
+        <v>1.762</v>
       </c>
       <c r="AM21">
-        <v>3.151</v>
+        <v>3.155</v>
       </c>
       <c r="AN21" t="b">
         <v>1</v>
@@ -5898,58 +5898,58 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AU21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV21">
         <v>5.8</v>
       </c>
       <c r="AW21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AX21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AY21" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AZ21" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="BA21" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB21" t="s">
         <v>283</v>
       </c>
-      <c r="BB21" t="s">
-        <v>286</v>
-      </c>
       <c r="BC21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="BE21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BF21">
         <v>5.75</v>
       </c>
       <c r="BG21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BI21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="BL21">
         <v>5.704</v>
@@ -5963,190 +5963,184 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2">
-        <v>44208</v>
+        <v>44273</v>
       </c>
       <c r="D22" s="2">
-        <v>47860</v>
+        <v>47560</v>
       </c>
       <c r="E22">
-        <v>500000000</v>
+        <v>715758000</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="N22">
-        <v>3.2</v>
+        <v>0.375</v>
       </c>
       <c r="O22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" t="s">
         <v>259</v>
       </c>
-      <c r="Q22" t="s">
-        <v>264</v>
-      </c>
       <c r="R22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U22" t="s">
+        <v>276</v>
+      </c>
+      <c r="V22" t="s">
         <v>283</v>
       </c>
-      <c r="V22" t="s">
-        <v>286</v>
-      </c>
       <c r="W22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="X22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Y22" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Z22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AC22" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AD22" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>380</v>
+        <v>356</v>
+      </c>
+      <c r="AE22">
+        <v>25</v>
       </c>
       <c r="AH22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI22" t="s">
-        <v>406</v>
-      </c>
-      <c r="AJ22">
-        <v>3.2</v>
+        <v>402</v>
       </c>
       <c r="AK22">
-        <v>3.155</v>
+        <v>0.467</v>
       </c>
       <c r="AL22">
-        <v>1.762</v>
+        <v>6.3234</v>
       </c>
       <c r="AM22">
-        <v>3.155</v>
+        <v>0.467</v>
       </c>
       <c r="AN22" t="b">
         <v>1</v>
       </c>
       <c r="AO22">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AP22" s="2">
-        <v>43558</v>
+        <v>43923</v>
       </c>
       <c r="AQ22" s="2">
-        <v>47211</v>
+        <v>46479</v>
       </c>
       <c r="AR22">
-        <v>750000000</v>
+        <v>542090000</v>
       </c>
       <c r="AS22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU22" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV22">
-        <v>5.8</v>
+        <v>285</v>
       </c>
       <c r="AW22" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AX22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AY22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AZ22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BA22" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB22" t="s">
         <v>283</v>
       </c>
-      <c r="BB22" t="s">
-        <v>286</v>
-      </c>
       <c r="BC22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="BE22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BF22">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="BG22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BH22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BI22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BK22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BL22">
-        <v>5.704</v>
+        <v>1.506</v>
       </c>
       <c r="BM22">
-        <v>5.704</v>
+        <v>1.506</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6154,184 +6148,184 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2">
-        <v>44273</v>
+        <v>44515</v>
       </c>
       <c r="D23" s="2">
-        <v>47560</v>
+        <v>48898</v>
       </c>
       <c r="E23">
-        <v>715758000</v>
+        <v>796999000</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
         <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N23">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="O23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T23" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="U23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="V23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X23" t="s">
         <v>295</v>
       </c>
       <c r="Y23" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Z23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB23" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AC23" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AD23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AE23">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AH23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI23" t="s">
-        <v>407</v>
+        <v>403</v>
+      </c>
+      <c r="AJ23">
+        <v>0.984</v>
       </c>
       <c r="AK23">
-        <v>0.467</v>
-      </c>
-      <c r="AL23">
-        <v>6.3234</v>
+        <v>1.021</v>
       </c>
       <c r="AM23">
-        <v>0.467</v>
+        <v>1.021</v>
       </c>
       <c r="AN23" t="b">
         <v>1</v>
       </c>
       <c r="AO23">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AP23" s="2">
-        <v>43923</v>
+        <v>44088</v>
       </c>
       <c r="AQ23" s="2">
-        <v>46479</v>
+        <v>48562</v>
       </c>
       <c r="AR23">
-        <v>542090000</v>
+        <v>712014000</v>
       </c>
       <c r="AS23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AU23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AX23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AY23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AZ23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="BA23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="BB23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BE23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BF23">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
       <c r="BG23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BH23" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="BI23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BL23">
-        <v>1.506</v>
+        <v>0.908</v>
       </c>
       <c r="BM23">
-        <v>1.506</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6339,184 +6333,187 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2">
-        <v>44515</v>
+        <v>44649</v>
       </c>
       <c r="D24" s="2">
-        <v>48898</v>
+        <v>46202</v>
       </c>
       <c r="E24">
-        <v>796999000</v>
+        <v>1385037500</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N24">
         <v>0.875</v>
       </c>
       <c r="O24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q24" t="s">
         <v>259</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
+        <v>265</v>
+      </c>
+      <c r="S24" t="s">
         <v>266</v>
       </c>
-      <c r="R24" t="s">
-        <v>268</v>
-      </c>
-      <c r="S24" t="s">
-        <v>269</v>
-      </c>
       <c r="T24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U24" t="s">
+        <v>282</v>
+      </c>
+      <c r="V24" t="s">
+        <v>283</v>
+      </c>
+      <c r="W24" t="s">
         <v>285</v>
       </c>
-      <c r="V24" t="s">
-        <v>286</v>
-      </c>
-      <c r="W24" t="s">
-        <v>288</v>
-      </c>
       <c r="X24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Y24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Z24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AC24" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="AD24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AE24">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AJ24">
-        <v>0.984</v>
+        <v>0.901</v>
       </c>
       <c r="AK24">
-        <v>1.021</v>
+        <v>0.857</v>
       </c>
       <c r="AM24">
-        <v>1.021</v>
+        <v>0.857</v>
       </c>
       <c r="AN24" t="b">
         <v>1</v>
       </c>
       <c r="AO24">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP24" s="2">
-        <v>44088</v>
+        <v>44649</v>
       </c>
       <c r="AQ24" s="2">
-        <v>48562</v>
+        <v>45380</v>
       </c>
       <c r="AR24">
-        <v>712014000</v>
+        <v>1108030000</v>
       </c>
       <c r="AS24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AU24" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="AV24">
+        <v>0.454</v>
       </c>
       <c r="AW24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AX24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AY24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AZ24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="BA24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BB24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD24" t="s">
         <v>520</v>
       </c>
       <c r="BE24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="BF24">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="BG24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BH24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BI24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BL24">
-        <v>0.908</v>
+        <v>0.355</v>
       </c>
       <c r="BM24">
-        <v>0.908</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6524,187 +6521,184 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2">
-        <v>44649</v>
+        <v>44642</v>
       </c>
       <c r="D25" s="2">
-        <v>46202</v>
+        <v>46834</v>
       </c>
       <c r="E25">
-        <v>1385037500</v>
+        <v>661404000</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
         <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N25">
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="O25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S25" t="s">
+        <v>266</v>
+      </c>
+      <c r="T25" t="s">
         <v>269</v>
       </c>
-      <c r="T25" t="s">
-        <v>279</v>
-      </c>
       <c r="U25" t="s">
+        <v>276</v>
+      </c>
+      <c r="V25" t="s">
+        <v>283</v>
+      </c>
+      <c r="W25" t="s">
         <v>285</v>
       </c>
-      <c r="V25" t="s">
-        <v>286</v>
-      </c>
-      <c r="W25" t="s">
-        <v>288</v>
-      </c>
       <c r="X25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Z25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AD25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AE25">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AJ25">
-        <v>0.901</v>
+        <v>1.813</v>
       </c>
       <c r="AK25">
-        <v>0.857</v>
+        <v>1.852</v>
       </c>
       <c r="AM25">
-        <v>0.857</v>
+        <v>1.852</v>
       </c>
       <c r="AN25" t="b">
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AP25" s="2">
-        <v>44649</v>
+        <v>44447</v>
       </c>
       <c r="AQ25" s="2">
-        <v>45380</v>
+        <v>46638</v>
       </c>
       <c r="AR25">
-        <v>1108030000</v>
+        <v>590940000</v>
       </c>
       <c r="AS25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU25" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV25">
-        <v>0.454</v>
+        <v>285</v>
       </c>
       <c r="AW25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AX25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AY25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AZ25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="BA25" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="BB25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD25" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="BE25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BF25">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="BG25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BH25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="BI25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="BL25">
-        <v>0.355</v>
+        <v>0.128</v>
       </c>
       <c r="BM25">
-        <v>0.355</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6712,16 +6706,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2">
-        <v>44642</v>
+        <v>44531</v>
       </c>
       <c r="D26" s="2">
-        <v>46834</v>
+        <v>47453</v>
       </c>
       <c r="E26">
-        <v>661404000</v>
+        <v>679416000</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
@@ -6730,91 +6724,91 @@
         <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>0.625</v>
       </c>
       <c r="O26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S26" t="s">
+        <v>266</v>
+      </c>
+      <c r="T26" t="s">
         <v>269</v>
       </c>
-      <c r="T26" t="s">
-        <v>272</v>
-      </c>
       <c r="U26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AD26" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE26">
-        <v>25</v>
+        <v>360</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>375</v>
       </c>
       <c r="AH26" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AJ26">
-        <v>1.813</v>
+        <v>0.738</v>
       </c>
       <c r="AK26">
-        <v>1.852</v>
+        <v>0.581</v>
       </c>
       <c r="AM26">
-        <v>1.852</v>
+        <v>0.581</v>
       </c>
       <c r="AN26" t="b">
         <v>1</v>
@@ -6835,55 +6829,55 @@
         <v>81</v>
       </c>
       <c r="AT26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AU26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AX26" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AY26" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AZ26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="BA26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="BB26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD26" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="BF26">
         <v>0</v>
       </c>
       <c r="BG26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK26" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="BL26">
         <v>0.128</v>
@@ -6897,184 +6891,187 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2">
-        <v>44531</v>
+        <v>44475</v>
       </c>
       <c r="D27" s="2">
-        <v>47453</v>
+        <v>48127</v>
       </c>
       <c r="E27">
-        <v>679416000</v>
+        <v>692586000</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
         <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N27">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="O27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" t="s">
         <v>259</v>
       </c>
-      <c r="Q27" t="s">
-        <v>261</v>
-      </c>
       <c r="R27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
         <v>296</v>
       </c>
       <c r="Y27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Z27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC27" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="AD27" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>379</v>
+        <v>361</v>
+      </c>
+      <c r="AE27">
+        <v>25</v>
       </c>
       <c r="AH27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AJ27">
-        <v>0.738</v>
+        <v>0.395</v>
       </c>
       <c r="AK27">
-        <v>0.581</v>
+        <v>0.418</v>
+      </c>
+      <c r="AL27">
+        <v>0.394</v>
       </c>
       <c r="AM27">
-        <v>0.581</v>
+        <v>0.418</v>
       </c>
       <c r="AN27" t="b">
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AP27" s="2">
-        <v>44447</v>
+        <v>43971</v>
       </c>
       <c r="AQ27" s="2">
-        <v>46638</v>
+        <v>47623</v>
       </c>
       <c r="AR27">
-        <v>590940000</v>
+        <v>658542000</v>
       </c>
       <c r="AS27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AU27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AX27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AY27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AZ27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BA27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="BB27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="BF27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BH27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BI27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="BL27">
-        <v>0.128</v>
+        <v>0.766</v>
       </c>
       <c r="BM27">
-        <v>0.128</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7082,187 +7079,181 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2">
-        <v>44475</v>
+        <v>44097</v>
       </c>
       <c r="D28" s="2">
-        <v>48127</v>
+        <v>47019</v>
       </c>
       <c r="E28">
-        <v>692586000</v>
+        <v>2161040500</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N28">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q28" t="s">
         <v>259</v>
       </c>
-      <c r="Q28" t="s">
-        <v>262</v>
-      </c>
       <c r="R28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T28" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="U28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Z28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB28" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AC28" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="AD28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE28">
         <v>25</v>
       </c>
       <c r="AH28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AI28" t="s">
-        <v>412</v>
-      </c>
-      <c r="AJ28">
-        <v>0.395</v>
+        <v>408</v>
       </c>
       <c r="AK28">
-        <v>0.418</v>
-      </c>
-      <c r="AL28">
-        <v>0.394</v>
+        <v>0.039</v>
       </c>
       <c r="AM28">
-        <v>0.418</v>
+        <v>0.039</v>
       </c>
       <c r="AN28" t="b">
         <v>1</v>
       </c>
       <c r="AO28">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="AP28" s="2">
-        <v>43971</v>
+        <v>43145</v>
       </c>
       <c r="AQ28" s="2">
-        <v>47623</v>
+        <v>47709</v>
       </c>
       <c r="AR28">
-        <v>658542000</v>
+        <v>931342500</v>
       </c>
       <c r="AS28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AU28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AX28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AY28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AZ28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="BA28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BB28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BF28">
-        <v>0.75</v>
+        <v>1.375</v>
       </c>
       <c r="BG28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BH28" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="BI28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="BL28">
-        <v>0.766</v>
+        <v>1.445</v>
       </c>
       <c r="BM28">
-        <v>0.766</v>
+        <v>1.445</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7270,181 +7261,184 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2">
-        <v>44097</v>
+        <v>44658</v>
       </c>
       <c r="D29" s="2">
-        <v>47019</v>
+        <v>47215</v>
       </c>
       <c r="E29">
-        <v>2161040500</v>
+        <v>815782500</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s">
+        <v>242</v>
+      </c>
+      <c r="N29">
+        <v>1.375</v>
+      </c>
+      <c r="O29" t="s">
         <v>254</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>257</v>
-      </c>
       <c r="P29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" t="s">
         <v>259</v>
       </c>
-      <c r="Q29" t="s">
-        <v>262</v>
-      </c>
       <c r="R29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T29" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="U29" t="s">
+        <v>276</v>
+      </c>
+      <c r="V29" t="s">
         <v>283</v>
       </c>
-      <c r="V29" t="s">
-        <v>286</v>
-      </c>
       <c r="W29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Z29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC29" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="AD29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AE29">
         <v>25</v>
       </c>
       <c r="AH29" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AI29" t="s">
-        <v>413</v>
+        <v>409</v>
+      </c>
+      <c r="AJ29">
+        <v>1.563</v>
       </c>
       <c r="AK29">
-        <v>0.039</v>
+        <v>1.612</v>
       </c>
       <c r="AM29">
-        <v>0.039</v>
+        <v>1.612</v>
       </c>
       <c r="AN29" t="b">
         <v>1</v>
       </c>
       <c r="AO29">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AP29" s="2">
-        <v>43145</v>
+        <v>44473</v>
       </c>
       <c r="AQ29" s="2">
-        <v>47709</v>
+        <v>47395</v>
       </c>
       <c r="AR29">
-        <v>931342500</v>
+        <v>580950000</v>
       </c>
       <c r="AS29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AU29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>474</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>506</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>517</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF29">
+        <v>0.125</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>522</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI29" t="s">
         <v>254</v>
       </c>
-      <c r="AX29" t="s">
-        <v>446</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>477</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>508</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>520</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF29">
-        <v>1.375</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>262</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>257</v>
-      </c>
       <c r="BJ29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="BL29">
-        <v>1.445</v>
+        <v>0.295</v>
       </c>
       <c r="BM29">
-        <v>1.445</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7452,184 +7446,178 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2">
-        <v>44658</v>
+        <v>44363</v>
       </c>
       <c r="D30" s="2">
-        <v>47215</v>
+        <v>46189</v>
       </c>
       <c r="E30">
-        <v>815782500</v>
+        <v>239118000</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
         <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30">
-        <v>1.375</v>
+        <v>1.896</v>
       </c>
       <c r="O30" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" t="s">
         <v>257</v>
-      </c>
-      <c r="P30" t="s">
-        <v>259</v>
       </c>
       <c r="Q30" t="s">
         <v>262</v>
       </c>
       <c r="R30" t="s">
+        <v>265</v>
+      </c>
+      <c r="S30" t="s">
         <v>268</v>
       </c>
-      <c r="S30" t="s">
-        <v>269</v>
-      </c>
-      <c r="T30" t="s">
-        <v>276</v>
-      </c>
       <c r="U30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Z30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC30" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AD30" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE30">
-        <v>25</v>
+        <v>364</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>375</v>
       </c>
       <c r="AH30" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI30" t="s">
-        <v>414</v>
-      </c>
-      <c r="AJ30">
-        <v>1.563</v>
+        <v>410</v>
       </c>
       <c r="AK30">
-        <v>1.612</v>
+        <v>1.66</v>
+      </c>
+      <c r="AL30">
+        <v>4.231</v>
       </c>
       <c r="AM30">
-        <v>1.612</v>
+        <v>1.66</v>
       </c>
       <c r="AN30" t="b">
         <v>1</v>
       </c>
       <c r="AO30">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="AP30" s="2">
-        <v>43927</v>
+        <v>43642</v>
       </c>
       <c r="AQ30" s="2">
-        <v>47581</v>
+        <v>45469</v>
       </c>
       <c r="AR30">
-        <v>1080200000</v>
+        <v>151235000</v>
       </c>
       <c r="AS30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AU30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AX30" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AY30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AZ30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BA30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BB30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BC30" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF30">
+        <v>2.763</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>255</v>
+      </c>
+      <c r="BJ30" t="s">
         <v>268</v>
       </c>
-      <c r="BD30" t="s">
-        <v>520</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>245</v>
-      </c>
-      <c r="BF30">
-        <v>1.75</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>262</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>276</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>269</v>
-      </c>
       <c r="BK30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="BL30">
-        <v>1.752</v>
+        <v>2.489</v>
       </c>
       <c r="BM30">
-        <v>1.752</v>
+        <v>2.489</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7637,178 +7625,184 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2">
-        <v>44363</v>
+        <v>44657</v>
       </c>
       <c r="D31" s="2">
-        <v>46189</v>
+        <v>47214</v>
       </c>
       <c r="E31">
-        <v>239118000</v>
+        <v>709033000</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
         <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N31">
-        <v>1.896</v>
+        <v>1.25</v>
       </c>
       <c r="O31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q31" t="s">
+        <v>259</v>
+      </c>
+      <c r="R31" t="s">
         <v>265</v>
       </c>
-      <c r="R31" t="s">
-        <v>268</v>
-      </c>
       <c r="S31" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="T31" t="s">
+        <v>278</v>
       </c>
       <c r="U31" t="s">
+        <v>281</v>
+      </c>
+      <c r="V31" t="s">
         <v>283</v>
       </c>
-      <c r="V31" t="s">
-        <v>287</v>
-      </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Z31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB31" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AC31" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="AD31" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>379</v>
+        <v>365</v>
+      </c>
+      <c r="AE31">
+        <v>25</v>
       </c>
       <c r="AH31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AI31" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="AJ31">
+        <v>1.302</v>
       </c>
       <c r="AK31">
-        <v>1.66</v>
-      </c>
-      <c r="AL31">
-        <v>4.231</v>
+        <v>1.328</v>
       </c>
       <c r="AM31">
-        <v>1.66</v>
+        <v>1.328</v>
       </c>
       <c r="AN31" t="b">
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="AP31" s="2">
-        <v>43642</v>
+        <v>43920</v>
       </c>
       <c r="AQ31" s="2">
-        <v>45469</v>
+        <v>47574</v>
       </c>
       <c r="AR31">
-        <v>151235000</v>
+        <v>1101960000</v>
       </c>
       <c r="AS31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AU31" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AW31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AX31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AY31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AZ31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="BA31" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB31" t="s">
         <v>283</v>
       </c>
-      <c r="BB31" t="s">
-        <v>287</v>
-      </c>
       <c r="BC31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD31" t="s">
-        <v>262</v>
+        <v>518</v>
       </c>
       <c r="BE31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="BF31">
-        <v>2.763</v>
+        <v>1.5</v>
       </c>
       <c r="BG31" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>278</v>
       </c>
       <c r="BI31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BJ31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="BK31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="BL31">
-        <v>2.489</v>
+        <v>0.78</v>
       </c>
       <c r="BM31">
-        <v>2.489</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7816,184 +7810,181 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2">
-        <v>44657</v>
+        <v>44581</v>
       </c>
       <c r="D32" s="2">
-        <v>47214</v>
+        <v>47289</v>
       </c>
       <c r="E32">
-        <v>709033000</v>
+        <v>962812000</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
         <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N32">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="O32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S32" t="s">
+        <v>266</v>
+      </c>
+      <c r="T32" t="s">
         <v>269</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>281</v>
       </c>
-      <c r="U32" t="s">
-        <v>284</v>
-      </c>
       <c r="V32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
         <v>288</v>
       </c>
-      <c r="X32" t="s">
-        <v>300</v>
-      </c>
       <c r="Y32" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC32" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AD32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AE32">
         <v>25</v>
       </c>
       <c r="AH32" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AI32" t="s">
-        <v>416</v>
-      </c>
-      <c r="AJ32">
-        <v>1.302</v>
+        <v>412</v>
       </c>
       <c r="AK32">
-        <v>1.328</v>
+        <v>0.845</v>
       </c>
       <c r="AM32">
-        <v>1.328</v>
+        <v>0.845</v>
       </c>
       <c r="AN32" t="b">
         <v>1</v>
       </c>
       <c r="AO32">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="AP32" s="2">
-        <v>43180</v>
+        <v>44172</v>
       </c>
       <c r="AQ32" s="2">
-        <v>50485</v>
+        <v>47094</v>
       </c>
       <c r="AR32">
-        <v>1535037500</v>
+        <v>727986000</v>
       </c>
       <c r="AS32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AU32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AX32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AY32" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AZ32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="BA32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD32" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="BE32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BF32">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="BG32" t="s">
-        <v>525</v>
+        <v>258</v>
       </c>
       <c r="BH32" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="BI32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BL32">
-        <v>1.889</v>
+        <v>0.029</v>
       </c>
       <c r="BM32">
-        <v>1.889</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8001,16 +7992,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2">
         <v>44581</v>
       </c>
       <c r="D33" s="2">
-        <v>47289</v>
+        <v>49115</v>
       </c>
       <c r="E33">
-        <v>962812000</v>
+        <v>736268000</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
@@ -8019,88 +8010,91 @@
         <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N33">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="O33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S33" t="s">
+        <v>266</v>
+      </c>
+      <c r="T33" t="s">
         <v>269</v>
       </c>
-      <c r="T33" t="s">
-        <v>272</v>
-      </c>
       <c r="U33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W33" t="s">
+        <v>285</v>
+      </c>
+      <c r="X33" t="s">
         <v>288</v>
       </c>
-      <c r="X33" t="s">
-        <v>291</v>
-      </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AB33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AC33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AD33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AE33">
         <v>25</v>
       </c>
       <c r="AH33" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI33" t="s">
-        <v>417</v>
+        <v>413</v>
+      </c>
+      <c r="AJ33">
+        <v>1.271</v>
       </c>
       <c r="AK33">
-        <v>0.845</v>
+        <v>1.277</v>
       </c>
       <c r="AM33">
-        <v>0.845</v>
+        <v>1.277</v>
       </c>
       <c r="AN33" t="b">
         <v>1</v>
@@ -8121,55 +8115,55 @@
         <v>87</v>
       </c>
       <c r="AT33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AU33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AX33" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AY33" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AZ33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BA33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BB33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BE33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BF33">
         <v>1</v>
       </c>
       <c r="BG33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BH33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BI33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BL33">
         <v>1.112</v>
@@ -8183,184 +8177,187 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2">
-        <v>44581</v>
+        <v>44452</v>
       </c>
       <c r="D34" s="2">
-        <v>49115</v>
+        <v>47011</v>
       </c>
       <c r="E34">
-        <v>736268000</v>
+        <v>500000000</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
         <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P34" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q34" t="s">
         <v>259</v>
       </c>
-      <c r="Q34" t="s">
-        <v>261</v>
-      </c>
       <c r="R34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="U34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="V34" t="s">
+        <v>283</v>
+      </c>
+      <c r="W34" t="s">
         <v>286</v>
       </c>
-      <c r="W34" t="s">
-        <v>288</v>
-      </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="Z34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AB34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AC34" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AD34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AE34">
         <v>25</v>
       </c>
       <c r="AH34" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AI34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AJ34">
-        <v>1.271</v>
+        <v>2.7</v>
       </c>
       <c r="AK34">
-        <v>1.277</v>
+        <v>2.553</v>
+      </c>
+      <c r="AL34">
+        <v>4.7465</v>
       </c>
       <c r="AM34">
-        <v>1.277</v>
+        <v>2.553</v>
       </c>
       <c r="AN34" t="b">
         <v>1</v>
       </c>
       <c r="AO34">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AP34" s="2">
-        <v>43720</v>
+        <v>43363</v>
       </c>
       <c r="AQ34" s="2">
-        <v>49199</v>
+        <v>47133</v>
       </c>
       <c r="AR34">
-        <v>664074000</v>
+        <v>1750000000</v>
       </c>
       <c r="AS34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AU34" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="AV34">
+        <v>6.125</v>
       </c>
       <c r="AW34" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AX34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AY34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AZ34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BA34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BB34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="BE34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BF34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BH34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="BI34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BK34" t="s">
-        <v>550</v>
-      </c>
-      <c r="BL34">
-        <v>1.112</v>
+        <v>549</v>
       </c>
       <c r="BM34">
-        <v>1.112</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8368,16 +8365,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2">
-        <v>44452</v>
+        <v>44378</v>
       </c>
       <c r="D35" s="2">
-        <v>47011</v>
+        <v>48228</v>
       </c>
       <c r="E35">
-        <v>500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F35" t="s">
         <v>88</v>
@@ -8386,94 +8383,91 @@
         <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>3.125</v>
       </c>
       <c r="O35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U35" t="s">
+        <v>280</v>
+      </c>
+      <c r="V35" t="s">
         <v>283</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>286</v>
       </c>
-      <c r="W35" t="s">
-        <v>289</v>
-      </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z35" t="s">
         <v>318</v>
       </c>
-      <c r="Z35" t="s">
-        <v>321</v>
-      </c>
       <c r="AA35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AD35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AE35">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AI35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AJ35">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="AK35">
-        <v>2.553</v>
-      </c>
-      <c r="AL35">
-        <v>4.7465</v>
+        <v>3.233</v>
       </c>
       <c r="AM35">
-        <v>2.553</v>
+        <v>3.233</v>
       </c>
       <c r="AN35" t="b">
         <v>1</v>
@@ -8494,58 +8488,58 @@
         <v>88</v>
       </c>
       <c r="AT35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AU35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV35">
         <v>5.18</v>
       </c>
       <c r="AW35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AX35" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AY35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AZ35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BA35" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB35" t="s">
         <v>283</v>
       </c>
-      <c r="BB35" t="s">
-        <v>286</v>
-      </c>
       <c r="BC35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BF35">
         <v>5</v>
       </c>
       <c r="BG35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="BI35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BL35">
         <v>5.268</v>
@@ -8559,16 +8553,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2">
-        <v>44378</v>
+        <v>44088</v>
       </c>
       <c r="D36" s="2">
-        <v>48228</v>
+        <v>47863</v>
       </c>
       <c r="E36">
-        <v>1000000000</v>
+        <v>1250000000</v>
       </c>
       <c r="F36" t="s">
         <v>88</v>
@@ -8577,169 +8571,169 @@
         <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N36">
-        <v>3.125</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q36" t="s">
         <v>259</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
+        <v>265</v>
+      </c>
+      <c r="S36" t="s">
         <v>267</v>
       </c>
-      <c r="R36" t="s">
-        <v>268</v>
-      </c>
-      <c r="S36" t="s">
-        <v>270</v>
-      </c>
       <c r="T36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U36" t="s">
+        <v>280</v>
+      </c>
+      <c r="V36" t="s">
         <v>283</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>286</v>
       </c>
-      <c r="W36" t="s">
-        <v>289</v>
-      </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z36" t="s">
         <v>318</v>
       </c>
-      <c r="Z36" t="s">
-        <v>321</v>
-      </c>
       <c r="AA36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB36" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AD36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AE36">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AI36" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ36">
-        <v>3.28</v>
+        <v>3.95</v>
       </c>
       <c r="AK36">
-        <v>3.233</v>
+        <v>3.637</v>
       </c>
       <c r="AM36">
-        <v>3.233</v>
+        <v>3.637</v>
       </c>
       <c r="AN36" t="b">
         <v>1</v>
       </c>
       <c r="AO36">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AP36" s="2">
-        <v>42810</v>
+        <v>43614</v>
       </c>
       <c r="AQ36" s="2">
-        <v>53767</v>
+        <v>47498</v>
       </c>
       <c r="AR36">
-        <v>1250000000</v>
+        <v>1000000000</v>
       </c>
       <c r="AS36" t="s">
         <v>88</v>
       </c>
       <c r="AT36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AU36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV36">
-        <v>7.375</v>
+        <v>5.18</v>
       </c>
       <c r="AW36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AX36" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AY36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AZ36" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BA36" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB36" t="s">
         <v>283</v>
       </c>
-      <c r="BB36" t="s">
-        <v>286</v>
-      </c>
       <c r="BC36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD36" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BF36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="BI36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BL36">
-        <v>7.177</v>
+        <v>5.268</v>
       </c>
       <c r="BM36">
-        <v>7.177</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8747,187 +8741,190 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2">
-        <v>44088</v>
+        <v>44509</v>
       </c>
       <c r="D37" s="2">
-        <v>47863</v>
+        <v>46516</v>
       </c>
       <c r="E37">
-        <v>1250000000</v>
+        <v>1275076000</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>128</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N37">
         <v>3.75</v>
       </c>
       <c r="O37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P37" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" t="s">
         <v>259</v>
       </c>
-      <c r="Q37" t="s">
-        <v>262</v>
-      </c>
       <c r="R37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U37" t="s">
+        <v>280</v>
+      </c>
+      <c r="V37" t="s">
         <v>283</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>286</v>
       </c>
-      <c r="W37" t="s">
-        <v>289</v>
-      </c>
       <c r="X37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z37" t="s">
         <v>318</v>
       </c>
-      <c r="Z37" t="s">
-        <v>321</v>
-      </c>
       <c r="AA37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB37" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AC37" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="AD37" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE37">
-        <v>25</v>
+        <v>371</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>377</v>
       </c>
       <c r="AH37" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AI37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AJ37">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="AK37">
-        <v>3.637</v>
+        <v>3.691</v>
+      </c>
+      <c r="AL37">
+        <v>4.231</v>
       </c>
       <c r="AM37">
-        <v>3.637</v>
+        <v>3.691</v>
       </c>
       <c r="AN37" t="b">
         <v>1</v>
       </c>
       <c r="AO37">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AP37" s="2">
-        <v>43614</v>
+        <v>43173</v>
       </c>
       <c r="AQ37" s="2">
-        <v>47498</v>
+        <v>45717</v>
       </c>
       <c r="AR37">
-        <v>1000000000</v>
+        <v>1113759000</v>
       </c>
       <c r="AS37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AU37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV37">
-        <v>5.18</v>
+        <v>4.5</v>
       </c>
       <c r="AW37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AX37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AY37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AZ37" t="s">
         <v>513</v>
       </c>
       <c r="BA37" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB37" t="s">
         <v>283</v>
       </c>
-      <c r="BB37" t="s">
-        <v>286</v>
-      </c>
       <c r="BC37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BF37">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BG37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BI37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BK37" t="s">
         <v>551</v>
       </c>
       <c r="BL37">
-        <v>5.268</v>
+        <v>4.282</v>
       </c>
       <c r="BM37">
-        <v>5.268</v>
+        <v>4.282</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8935,190 +8932,190 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2">
         <v>44509</v>
       </c>
       <c r="D38" s="2">
-        <v>46516</v>
+        <v>47247</v>
       </c>
       <c r="E38">
-        <v>1275076000</v>
+        <v>1000000000</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
         <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s">
+        <v>253</v>
+      </c>
+      <c r="N38">
+        <v>5.125</v>
+      </c>
+      <c r="O38" t="s">
+        <v>254</v>
+      </c>
+      <c r="P38" t="s">
         <v>256</v>
       </c>
-      <c r="N38">
-        <v>3.75</v>
-      </c>
-      <c r="O38" t="s">
-        <v>257</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>259</v>
       </c>
-      <c r="Q38" t="s">
-        <v>262</v>
-      </c>
       <c r="R38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="U38" t="s">
+        <v>280</v>
+      </c>
+      <c r="V38" t="s">
         <v>283</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>286</v>
       </c>
-      <c r="W38" t="s">
-        <v>289</v>
-      </c>
       <c r="X38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Z38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AD38" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>381</v>
+        <v>372</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>376</v>
       </c>
       <c r="AH38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AI38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AJ38">
-        <v>3.75</v>
+        <v>5.125</v>
       </c>
       <c r="AK38">
-        <v>3.691</v>
+        <v>5.068</v>
       </c>
       <c r="AL38">
-        <v>4.231</v>
+        <v>4.873</v>
       </c>
       <c r="AM38">
-        <v>3.691</v>
+        <v>5.068</v>
       </c>
       <c r="AN38" t="b">
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AP38" s="2">
         <v>43173</v>
       </c>
       <c r="AQ38" s="2">
-        <v>45717</v>
+        <v>46813</v>
       </c>
       <c r="AR38">
-        <v>1113759000</v>
+        <v>1250000000</v>
       </c>
       <c r="AS38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AU38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV38">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="AW38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AX38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AY38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AZ38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BA38" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB38" t="s">
         <v>283</v>
       </c>
-      <c r="BB38" t="s">
-        <v>286</v>
-      </c>
       <c r="BC38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BF38">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="BG38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BI38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BK38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="BL38">
-        <v>4.282</v>
+        <v>6.704</v>
       </c>
       <c r="BM38">
-        <v>4.282</v>
+        <v>6.704</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9126,13 +9123,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="2">
         <v>44509</v>
       </c>
       <c r="D39" s="2">
-        <v>47247</v>
+        <v>46516</v>
       </c>
       <c r="E39">
         <v>1000000000</v>
@@ -9144,94 +9141,82 @@
         <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N39">
+        <v>4.75</v>
+      </c>
+      <c r="O39" t="s">
+        <v>254</v>
+      </c>
+      <c r="P39" t="s">
         <v>256</v>
       </c>
-      <c r="N39">
-        <v>5.125</v>
-      </c>
-      <c r="O39" t="s">
-        <v>257</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>259</v>
       </c>
-      <c r="Q39" t="s">
-        <v>262</v>
-      </c>
       <c r="R39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="U39" t="s">
+        <v>280</v>
+      </c>
+      <c r="V39" t="s">
         <v>283</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>286</v>
       </c>
-      <c r="W39" t="s">
-        <v>289</v>
-      </c>
       <c r="X39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC39" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="AI39" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AJ39">
-        <v>5.125</v>
-      </c>
-      <c r="AK39">
-        <v>5.068</v>
+        <v>4.75</v>
       </c>
       <c r="AL39">
         <v>4.873</v>
       </c>
       <c r="AM39">
-        <v>5.068</v>
+        <v>4.75</v>
       </c>
       <c r="AN39" t="b">
         <v>1</v>
@@ -9252,58 +9237,58 @@
         <v>90</v>
       </c>
       <c r="AT39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AU39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AV39">
         <v>6.75</v>
       </c>
       <c r="AW39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AX39" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AY39" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AZ39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="BA39" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB39" t="s">
         <v>283</v>
       </c>
-      <c r="BB39" t="s">
-        <v>286</v>
-      </c>
       <c r="BC39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BE39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BF39">
         <v>6.75</v>
       </c>
       <c r="BG39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BH39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BI39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BJ39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BK39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BL39">
         <v>6.704</v>
@@ -9317,31 +9302,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2">
-        <v>44509</v>
+        <v>44337</v>
       </c>
       <c r="D40" s="2">
-        <v>46516</v>
+        <v>46163</v>
       </c>
       <c r="E40">
-        <v>1000000000</v>
+        <v>182463000</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
         <v>131</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
         <v>247</v>
@@ -9350,145 +9335,142 @@
         <v>247</v>
       </c>
       <c r="M40" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N40">
-        <v>4.75</v>
+        <v>3.125</v>
       </c>
       <c r="O40" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" t="s">
         <v>257</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>259</v>
       </c>
-      <c r="Q40" t="s">
-        <v>262</v>
-      </c>
       <c r="R40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S40" t="s">
-        <v>270</v>
-      </c>
-      <c r="T40" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="U40" t="s">
+        <v>280</v>
+      </c>
+      <c r="V40" t="s">
         <v>283</v>
       </c>
-      <c r="V40" t="s">
-        <v>286</v>
-      </c>
       <c r="W40" t="s">
+        <v>285</v>
+      </c>
+      <c r="X40" t="s">
         <v>289</v>
       </c>
-      <c r="X40" t="s">
-        <v>300</v>
-      </c>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="Z40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AC40" t="s">
-        <v>317</v>
+        <v>330</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE40">
+        <v>15</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>382</v>
       </c>
       <c r="AI40" t="s">
-        <v>423</v>
-      </c>
-      <c r="AJ40">
-        <v>4.75</v>
-      </c>
-      <c r="AL40">
-        <v>4.873</v>
+        <v>419</v>
+      </c>
+      <c r="AK40">
+        <v>2.666</v>
       </c>
       <c r="AM40">
-        <v>4.75</v>
+        <v>2.666</v>
       </c>
       <c r="AN40" t="b">
         <v>1</v>
       </c>
       <c r="AO40">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="AP40" s="2">
-        <v>43173</v>
+        <v>43782</v>
       </c>
       <c r="AQ40" s="2">
-        <v>46813</v>
+        <v>45974</v>
       </c>
       <c r="AR40">
-        <v>1250000000</v>
+        <v>131989200</v>
       </c>
       <c r="AS40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AU40" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV40">
-        <v>6.75</v>
+        <v>285</v>
       </c>
       <c r="AW40" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AX40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AY40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AZ40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BA40" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB40" t="s">
         <v>283</v>
       </c>
-      <c r="BB40" t="s">
-        <v>286</v>
-      </c>
       <c r="BC40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BD40" t="s">
-        <v>519</v>
+        <v>259</v>
       </c>
       <c r="BE40" t="s">
         <v>247</v>
       </c>
       <c r="BF40">
-        <v>6.75</v>
+        <v>2.75</v>
       </c>
       <c r="BG40" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="BI40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BJ40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BK40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="BL40">
-        <v>6.704</v>
+        <v>2.131</v>
       </c>
       <c r="BM40">
-        <v>6.704</v>
+        <v>2.131</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9496,359 +9478,183 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2">
-        <v>44337</v>
+        <v>44589</v>
       </c>
       <c r="D41" s="2">
-        <v>46163</v>
+        <v>46231</v>
       </c>
       <c r="E41">
-        <v>182463000</v>
+        <v>446048000</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
         <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N41">
-        <v>3.125</v>
+        <v>3.875</v>
       </c>
       <c r="O41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="R41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S41" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="T41" t="s">
+        <v>279</v>
       </c>
       <c r="U41" t="s">
+        <v>280</v>
+      </c>
+      <c r="V41" t="s">
         <v>283</v>
       </c>
-      <c r="V41" t="s">
-        <v>286</v>
-      </c>
       <c r="W41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y41" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Z41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AC41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AD41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AE41">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AI41" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="AJ41">
+        <v>3.879</v>
       </c>
       <c r="AK41">
-        <v>2.666</v>
+        <v>4.006</v>
       </c>
       <c r="AM41">
-        <v>2.666</v>
+        <v>4.006</v>
       </c>
       <c r="AN41" t="b">
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AP41" s="2">
-        <v>43782</v>
+        <v>44180</v>
       </c>
       <c r="AQ41" s="2">
-        <v>45974</v>
+        <v>46006</v>
       </c>
       <c r="AR41">
-        <v>131989200</v>
+        <v>912075000</v>
       </c>
       <c r="AS41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AU41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AW41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AX41" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AY41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AZ41" t="s">
+        <v>516</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD41" t="s">
         <v>517</v>
       </c>
-      <c r="BA41" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>262</v>
-      </c>
       <c r="BE41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="BF41">
-        <v>2.75</v>
+        <v>5.875</v>
       </c>
       <c r="BG41" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>279</v>
       </c>
       <c r="BI41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BJ41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BK41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BL41">
-        <v>2.131</v>
+        <v>5.427</v>
       </c>
       <c r="BM41">
-        <v>2.131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>277</v>
-      </c>
-      <c r="C42" s="2">
-        <v>44589</v>
-      </c>
-      <c r="D42" s="2">
-        <v>46231</v>
-      </c>
-      <c r="E42">
-        <v>446048000</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" t="s">
-        <v>215</v>
-      </c>
-      <c r="J42" t="s">
-        <v>243</v>
-      </c>
-      <c r="K42" t="s">
-        <v>244</v>
-      </c>
-      <c r="L42" t="s">
-        <v>244</v>
-      </c>
-      <c r="M42" t="s">
-        <v>244</v>
-      </c>
-      <c r="N42">
-        <v>3.875</v>
-      </c>
-      <c r="O42" t="s">
-        <v>257</v>
-      </c>
-      <c r="P42" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>262</v>
-      </c>
-      <c r="R42" t="s">
-        <v>268</v>
-      </c>
-      <c r="S42" t="s">
-        <v>269</v>
-      </c>
-      <c r="T42" t="s">
-        <v>282</v>
-      </c>
-      <c r="U42" t="s">
-        <v>283</v>
-      </c>
-      <c r="V42" t="s">
-        <v>286</v>
-      </c>
-      <c r="W42" t="s">
-        <v>288</v>
-      </c>
-      <c r="X42" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE42">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ42">
-        <v>3.879</v>
-      </c>
-      <c r="AK42">
-        <v>4.006</v>
-      </c>
-      <c r="AM42">
-        <v>4.006</v>
-      </c>
-      <c r="AN42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>425</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>44180</v>
-      </c>
-      <c r="AQ42" s="2">
-        <v>46006</v>
-      </c>
-      <c r="AR42">
-        <v>912075000</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>288</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>244</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>456</v>
-      </c>
-      <c r="AY42" t="s">
-        <v>487</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>518</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB42" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC42" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>519</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BF42">
-        <v>5.875</v>
-      </c>
-      <c r="BG42" t="s">
-        <v>262</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>282</v>
-      </c>
-      <c r="BI42" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL42">
-        <v>5.427</v>
-      </c>
-      <c r="BM42">
         <v>5.427</v>
       </c>
     </row>
